--- a/app/modules/report.xlsx
+++ b/app/modules/report.xlsx
@@ -8,12 +8,14 @@
     <sheet name="Frontend-Blass工作週報" sheetId="1" r:id="rId4"/>
     <sheet name="Frontend-Owen工作週報" sheetId="2" r:id="rId5"/>
     <sheet name="Frontend-Clara工作週報" sheetId="3" r:id="rId6"/>
+    <sheet name="Frontend-Sunny工作週報" sheetId="4" r:id="rId7"/>
+    <sheet name="Frontend-Howard工作週報" sheetId="5" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>Frontend-Blass 工作週報</t>
   </si>
@@ -21,22 +23,19 @@
     <t xml:space="preserve">                             日 期 : 2018/12/19 ~ 12/26</t>
   </si>
   <si>
-    <t>本週工作計畫</t>
+    <t>本週項目進度</t>
   </si>
   <si>
     <t>項目</t>
   </si>
   <si>
-    <t>預定完成日</t>
+    <t>完成狀況</t>
   </si>
   <si>
     <t>備註</t>
   </si>
   <si>
-    <t>上週生產事務</t>
-  </si>
-  <si>
-    <t>完成狀況</t>
+    <t>下週項目進度與規劃</t>
   </si>
   <si>
     <t>討論事項</t>
@@ -52,6 +51,12 @@
   </si>
   <si>
     <t>Frontend-Clara 工作週報</t>
+  </si>
+  <si>
+    <t>Frontend-Sunny 工作週報</t>
+  </si>
+  <si>
+    <t>Frontend-Howard 工作週報</t>
   </si>
 </sst>
 </file>
@@ -343,7 +348,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -470,8 +475,11 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1649,7 +1657,7 @@
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" t="s" s="12">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s" s="14">
         <v>5</v>
@@ -1678,7 +1686,7 @@
     </row>
     <row r="13" ht="29.25" customHeight="1">
       <c r="A13" t="s" s="24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -1687,12 +1695,12 @@
     </row>
     <row r="14" ht="25.5" customHeight="1">
       <c r="A14" t="s" s="26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="27"/>
       <c r="C14" s="28"/>
       <c r="D14" t="s" s="26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" s="28"/>
     </row>
@@ -1794,7 +1802,7 @@
   <sheetData>
     <row r="1" ht="90" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1869,7 +1877,7 @@
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" t="s" s="12">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s" s="14">
         <v>5</v>
@@ -1898,7 +1906,7 @@
     </row>
     <row r="13" ht="29.25" customHeight="1">
       <c r="A13" t="s" s="24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -1907,12 +1915,12 @@
     </row>
     <row r="14" ht="25.5" customHeight="1">
       <c r="A14" t="s" s="26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="27"/>
       <c r="C14" s="28"/>
       <c r="D14" t="s" s="26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" s="28"/>
     </row>
@@ -2014,7 +2022,7 @@
   <sheetData>
     <row r="1" ht="90" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2074,7 +2082,7 @@
       <c r="E7" s="16"/>
     </row>
     <row r="8" ht="27.75" customHeight="1">
-      <c r="A8" t="s" s="42">
+      <c r="A8" t="s" s="19">
         <v>6</v>
       </c>
       <c r="B8" s="20"/>
@@ -2089,7 +2097,7 @@
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" t="s" s="12">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s" s="14">
         <v>5</v>
@@ -2118,7 +2126,7 @@
     </row>
     <row r="13" ht="29.25" customHeight="1">
       <c r="A13" t="s" s="24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -2127,12 +2135,452 @@
     </row>
     <row r="14" ht="25.5" customHeight="1">
       <c r="A14" t="s" s="26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="27"/>
       <c r="C14" s="28"/>
       <c r="D14" t="s" s="26">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E14" s="28"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1">
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="31"/>
+    </row>
+    <row r="16" ht="22.5" customHeight="1">
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="31"/>
+    </row>
+    <row r="17" ht="22.5" customHeight="1">
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="31"/>
+    </row>
+    <row r="18" ht="22.5" customHeight="1">
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="31"/>
+    </row>
+    <row r="19" ht="22.5" customHeight="1">
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="31"/>
+    </row>
+    <row r="20" ht="22.5" customHeight="1">
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="31"/>
+    </row>
+    <row r="21" ht="22.5" customHeight="1">
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="31"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="33"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="36"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:C4"/>
+  </mergeCells>
+  <pageMargins left="0.708661" right="0.708661" top="0.748031" bottom="0.748031" header="0.314961" footer="0.314961"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="14.5" style="42" customWidth="1"/>
+    <col min="2" max="2" width="6" style="42" customWidth="1"/>
+    <col min="3" max="3" width="62.3516" style="42" customWidth="1"/>
+    <col min="4" max="4" width="31.5" style="42" customWidth="1"/>
+    <col min="5" max="5" width="73.3516" style="42" customWidth="1"/>
+    <col min="6" max="256" width="14.5" style="42" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="90" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" ht="34.5" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" t="s" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="24.75" customHeight="1">
+      <c r="A3" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" ht="23.25" customHeight="1">
+      <c r="A4" t="s" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" t="s" s="12">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" ht="33" customHeight="1">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" ht="33" customHeight="1">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" ht="33" customHeight="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" ht="27.75" customHeight="1">
+      <c r="A8" t="s" s="19">
+        <v>6</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" ht="16.5" customHeight="1">
+      <c r="A9" t="s" s="12">
+        <v>3</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" t="s" s="12">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" ht="27.75" customHeight="1">
+      <c r="A10" s="21"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" ht="27.75" customHeight="1">
+      <c r="A11" s="22"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" ht="27.75" customHeight="1">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" ht="29.25" customHeight="1">
+      <c r="A13" t="s" s="24">
+        <v>7</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" t="s" s="26">
+        <v>8</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" t="s" s="26">
+        <v>9</v>
+      </c>
+      <c r="E14" s="28"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1">
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="31"/>
+    </row>
+    <row r="16" ht="22.5" customHeight="1">
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="31"/>
+    </row>
+    <row r="17" ht="22.5" customHeight="1">
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="31"/>
+    </row>
+    <row r="18" ht="22.5" customHeight="1">
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="31"/>
+    </row>
+    <row r="19" ht="22.5" customHeight="1">
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="31"/>
+    </row>
+    <row r="20" ht="22.5" customHeight="1">
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="31"/>
+    </row>
+    <row r="21" ht="22.5" customHeight="1">
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="31"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="33"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="36"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:C4"/>
+  </mergeCells>
+  <pageMargins left="0.708661" right="0.708661" top="0.748031" bottom="0.748031" header="0.314961" footer="0.314961"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="14.5" style="43" customWidth="1"/>
+    <col min="2" max="2" width="6" style="43" customWidth="1"/>
+    <col min="3" max="3" width="62.3516" style="43" customWidth="1"/>
+    <col min="4" max="4" width="31.5" style="43" customWidth="1"/>
+    <col min="5" max="5" width="73.3516" style="43" customWidth="1"/>
+    <col min="6" max="256" width="14.5" style="43" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="90" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" ht="34.5" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" t="s" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="24.75" customHeight="1">
+      <c r="A3" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" ht="23.25" customHeight="1">
+      <c r="A4" t="s" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" t="s" s="12">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" ht="33" customHeight="1">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" ht="33" customHeight="1">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" ht="33" customHeight="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" ht="27.75" customHeight="1">
+      <c r="A8" t="s" s="19">
+        <v>6</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" ht="16.5" customHeight="1">
+      <c r="A9" t="s" s="12">
+        <v>3</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" t="s" s="12">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" ht="27.75" customHeight="1">
+      <c r="A10" s="21"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" ht="27.75" customHeight="1">
+      <c r="A11" s="22"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" ht="27.75" customHeight="1">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" ht="29.25" customHeight="1">
+      <c r="A13" t="s" s="24">
+        <v>7</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" t="s" s="26">
+        <v>8</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" t="s" s="26">
+        <v>9</v>
       </c>
       <c r="E14" s="28"/>
     </row>

--- a/app/modules/report.xlsx
+++ b/app/modules/report.xlsx
@@ -8,14 +8,17 @@
     <sheet name="Frontend-Blass工作週報" sheetId="1" r:id="rId4"/>
     <sheet name="Frontend-Owen工作週報" sheetId="2" r:id="rId5"/>
     <sheet name="Frontend-Clara工作週報" sheetId="3" r:id="rId6"/>
-    <sheet name="Frontend-Sunny工作週報" sheetId="4" r:id="rId7"/>
-    <sheet name="Frontend-Howard工作週報" sheetId="5" r:id="rId8"/>
+    <sheet name="Frontend-Wilson工作週報" sheetId="4" r:id="rId7"/>
+    <sheet name="Frontend-White工作週報" sheetId="5" r:id="rId8"/>
+    <sheet name="Frontend-Sunny工作週報" sheetId="6" r:id="rId9"/>
+    <sheet name="Frontend-Howard工作週報" sheetId="7" r:id="rId10"/>
+    <sheet name="Frontend-Max工作週報" sheetId="8" r:id="rId11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>Frontend-Blass 工作週報</t>
   </si>
@@ -53,10 +56,19 @@
     <t>Frontend-Clara 工作週報</t>
   </si>
   <si>
+    <t>Frontend-Wilson 工作週報</t>
+  </si>
+  <si>
+    <t>Frontend-White 工作週報</t>
+  </si>
+  <si>
     <t>Frontend-Sunny 工作週報</t>
   </si>
   <si>
     <t>Frontend-Howard 工作週報</t>
+  </si>
+  <si>
+    <t>Frontend-Max 工作週報</t>
   </si>
 </sst>
 </file>
@@ -348,7 +360,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -468,6 +480,15 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -2659,4 +2680,664 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="14.5" style="44" customWidth="1"/>
+    <col min="2" max="2" width="6" style="44" customWidth="1"/>
+    <col min="3" max="3" width="62.3516" style="44" customWidth="1"/>
+    <col min="4" max="4" width="31.5" style="44" customWidth="1"/>
+    <col min="5" max="5" width="73.3516" style="44" customWidth="1"/>
+    <col min="6" max="256" width="14.5" style="44" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="90" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" ht="34.5" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" t="s" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="24.75" customHeight="1">
+      <c r="A3" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" ht="23.25" customHeight="1">
+      <c r="A4" t="s" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" t="s" s="12">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" ht="33" customHeight="1">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" ht="33" customHeight="1">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" ht="33" customHeight="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" ht="27.75" customHeight="1">
+      <c r="A8" t="s" s="19">
+        <v>6</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" ht="16.5" customHeight="1">
+      <c r="A9" t="s" s="12">
+        <v>3</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" t="s" s="12">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" ht="27.75" customHeight="1">
+      <c r="A10" s="21"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" ht="27.75" customHeight="1">
+      <c r="A11" s="22"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" ht="27.75" customHeight="1">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" ht="29.25" customHeight="1">
+      <c r="A13" t="s" s="24">
+        <v>7</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" t="s" s="26">
+        <v>8</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" t="s" s="26">
+        <v>9</v>
+      </c>
+      <c r="E14" s="28"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1">
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="31"/>
+    </row>
+    <row r="16" ht="22.5" customHeight="1">
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="31"/>
+    </row>
+    <row r="17" ht="22.5" customHeight="1">
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="31"/>
+    </row>
+    <row r="18" ht="22.5" customHeight="1">
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="31"/>
+    </row>
+    <row r="19" ht="22.5" customHeight="1">
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="31"/>
+    </row>
+    <row r="20" ht="22.5" customHeight="1">
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="31"/>
+    </row>
+    <row r="21" ht="22.5" customHeight="1">
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="31"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="33"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="36"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:C4"/>
+  </mergeCells>
+  <pageMargins left="0.708661" right="0.708661" top="0.748031" bottom="0.748031" header="0.314961" footer="0.314961"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="14.5" style="45" customWidth="1"/>
+    <col min="2" max="2" width="6" style="45" customWidth="1"/>
+    <col min="3" max="3" width="62.3516" style="45" customWidth="1"/>
+    <col min="4" max="4" width="31.5" style="45" customWidth="1"/>
+    <col min="5" max="5" width="73.3516" style="45" customWidth="1"/>
+    <col min="6" max="256" width="14.5" style="45" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="90" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" ht="34.5" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" t="s" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="24.75" customHeight="1">
+      <c r="A3" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" ht="23.25" customHeight="1">
+      <c r="A4" t="s" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" t="s" s="12">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" ht="33" customHeight="1">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" ht="33" customHeight="1">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" ht="33" customHeight="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" ht="27.75" customHeight="1">
+      <c r="A8" t="s" s="19">
+        <v>6</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" ht="16.5" customHeight="1">
+      <c r="A9" t="s" s="12">
+        <v>3</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" t="s" s="12">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" ht="27.75" customHeight="1">
+      <c r="A10" s="21"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" ht="27.75" customHeight="1">
+      <c r="A11" s="22"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" ht="27.75" customHeight="1">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" ht="29.25" customHeight="1">
+      <c r="A13" t="s" s="24">
+        <v>7</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" t="s" s="26">
+        <v>8</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" t="s" s="26">
+        <v>9</v>
+      </c>
+      <c r="E14" s="28"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1">
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="31"/>
+    </row>
+    <row r="16" ht="22.5" customHeight="1">
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="31"/>
+    </row>
+    <row r="17" ht="22.5" customHeight="1">
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="31"/>
+    </row>
+    <row r="18" ht="22.5" customHeight="1">
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="31"/>
+    </row>
+    <row r="19" ht="22.5" customHeight="1">
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="31"/>
+    </row>
+    <row r="20" ht="22.5" customHeight="1">
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="31"/>
+    </row>
+    <row r="21" ht="22.5" customHeight="1">
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="31"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="33"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="36"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:C4"/>
+  </mergeCells>
+  <pageMargins left="0.708661" right="0.708661" top="0.748031" bottom="0.748031" header="0.314961" footer="0.314961"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="14.5" style="46" customWidth="1"/>
+    <col min="2" max="2" width="6" style="46" customWidth="1"/>
+    <col min="3" max="3" width="62.3516" style="46" customWidth="1"/>
+    <col min="4" max="4" width="31.5" style="46" customWidth="1"/>
+    <col min="5" max="5" width="73.3516" style="46" customWidth="1"/>
+    <col min="6" max="256" width="14.5" style="46" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="90" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" ht="34.5" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" t="s" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="24.75" customHeight="1">
+      <c r="A3" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" ht="23.25" customHeight="1">
+      <c r="A4" t="s" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" t="s" s="12">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" ht="33" customHeight="1">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" ht="33" customHeight="1">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" ht="33" customHeight="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" ht="27.75" customHeight="1">
+      <c r="A8" t="s" s="19">
+        <v>6</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" ht="16.5" customHeight="1">
+      <c r="A9" t="s" s="12">
+        <v>3</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" t="s" s="12">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" ht="27.75" customHeight="1">
+      <c r="A10" s="21"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" ht="27.75" customHeight="1">
+      <c r="A11" s="22"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" ht="27.75" customHeight="1">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" ht="29.25" customHeight="1">
+      <c r="A13" t="s" s="24">
+        <v>7</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" t="s" s="26">
+        <v>8</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" t="s" s="26">
+        <v>9</v>
+      </c>
+      <c r="E14" s="28"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1">
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="31"/>
+    </row>
+    <row r="16" ht="22.5" customHeight="1">
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="31"/>
+    </row>
+    <row r="17" ht="22.5" customHeight="1">
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="31"/>
+    </row>
+    <row r="18" ht="22.5" customHeight="1">
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="31"/>
+    </row>
+    <row r="19" ht="22.5" customHeight="1">
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="31"/>
+    </row>
+    <row r="20" ht="22.5" customHeight="1">
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="31"/>
+    </row>
+    <row r="21" ht="22.5" customHeight="1">
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="31"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="33"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="36"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:C4"/>
+  </mergeCells>
+  <pageMargins left="0.708661" right="0.708661" top="0.748031" bottom="0.748031" header="0.314961" footer="0.314961"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>